--- a/pred_ohlcv/54_21/2020-01-19 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 STEEM ohlcv.xlsx
@@ -2134,7 +2134,7 @@
         <v>4132.544667300003</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5097.544667300003</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1097.164667300003</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1100.164667300003</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4749.912367300003</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>14861.7706673</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>28002.11118207</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>695746.8582605601</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>739509.7218828001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>783472.9053828001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>780976.3701261102</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>772250.6127261102</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>858210.0293690201</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>874506.6809019702</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>906256.3455642903</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>971312.6211642904</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1017620.48746429</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>993728.8154012604</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>918972.4523555804</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>916051.9510555804</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>916051.9510555804</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>950974.5822555805</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1060173.22495558</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1021793.13775558</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1031511.35905558</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1015930.21985558</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1390854.067922201</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1267195.432022201</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1318709.901739411</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1311236.016664651</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1258390.571964651</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1333525.628561261</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1237432.869561261</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1248619.041061261</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1266362.32826126</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1517115.94678725</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1632156.43347931</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1632156.43347931</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1665446.69237805</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1630630.50397805</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1658234.37993747</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1658234.37993747</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1628443.340537471</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1567261.86043747</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1608365.199513741</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1767509.206135341</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1896453.756107771</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1989338.687978221</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1874818.215046531</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1979933.925176741</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2107931.180297761</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2107931.180297761</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2220660.701578551</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2667942.439797761</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2902005.382026181</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2655747.729690061</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2753104.054464381</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2804829.992579101</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>2370974.166024531</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2322576.647924531</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2351762.466484941</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2394438.657310661</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2291935.985267791</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2319083.243302971</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>2411111.731299691</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>2356831.641423911</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>2216277.348063641</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2535607.403460741</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2538833.128760741</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2480926.501160741</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2449886.581260741</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 STEEM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 STEEM ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>18675.5530673</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>29529.2490673</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>37564.1132673</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>37564.1132673</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>36943.7264673</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>36946.7264673</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>5121.576667300003</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>5124.576667300003</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>4124.576667300003</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>4124.576667300003</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>4132.544667300003</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>5097.544667300003</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>1097.164667300003</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>1100.164667300003</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>4749.912367300003</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>14861.7706673</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>28002.11118207</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>38772.2875673</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>12337.12795485</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>23572.39665485</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>695746.8582605601</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>739509.7218828001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>783472.9053828001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>780976.3701261102</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>772250.6127261102</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>858210.0293690201</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>874506.6809019702</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>906256.3455642903</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>971312.6211642904</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>1017620.48746429</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>993728.8154012604</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>918972.4523555804</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>916051.9510555804</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>916051.9510555804</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>950974.5822555805</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>1060173.22495558</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>1021793.13775558</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>1031511.35905558</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>1015930.21985558</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>1390854.067922201</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>1267195.432022201</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>1318709.901739411</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>1311236.016664651</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>1258390.571964651</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>1333525.628561261</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>1237432.869561261</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>1248619.041061261</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>1266362.32826126</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>1517115.94678725</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>1632156.43347931</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>1632156.43347931</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>1665446.69237805</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>1630630.50397805</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>1658234.37993747</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>1658234.37993747</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>1628443.340537471</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>1567261.86043747</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>1608365.199513741</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1767509.206135341</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1896453.756107771</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1989338.687978221</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>1874818.215046531</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>1979933.925176741</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>2107931.180297761</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>2107931.180297761</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>2220660.701578551</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>2667942.439797761</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>2902005.382026181</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>2655747.729690061</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>2753104.054464381</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>2804829.992579101</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>2322576.647924531</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>2351762.466484941</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>2394438.657310661</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>2291935.985267791</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>2319083.243302971</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>2411111.731299691</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>2449005.477699691</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>2434965.056499691</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>2409479.501299691</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>2345580.987799691</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>2344006.184799691</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>2318075.399699691</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>2216277.348063641</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>2592334.664160741</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>2553347.577060741</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>2549748.865260741</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>2535607.403460741</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>2538833.128760741</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>2526005.089960741</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>2503164.455760741</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>2480926.501160741</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>2449886.581260741</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
